--- a/src/excel/SpanishEnglish-BODY1.xlsx
+++ b/src/excel/SpanishEnglish-BODY1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60A328-EE7D-4201-8B33-A88EFEDBC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322C011-7077-4DA6-9740-3D093419C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8D26B72-CF22-466D-8E24-1B21C211416D}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>ojo</t>
   </si>
   <si>
@@ -242,6 +239,90 @@
   </si>
   <si>
     <t>nose</t>
+  </si>
+  <si>
+    <t>nous</t>
+  </si>
+  <si>
+    <t>jer</t>
+  </si>
+  <si>
+    <t>louer back</t>
+  </si>
+  <si>
+    <t>jend</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>nii</t>
+  </si>
+  <si>
+    <t>lecg</t>
+  </si>
+  <si>
+    <t>elbou</t>
+  </si>
+  <si>
+    <t>forarm</t>
+  </si>
+  <si>
+    <t>mauf</t>
+  </si>
+  <si>
+    <t>fut sool</t>
+  </si>
+  <si>
+    <t>enkol</t>
+  </si>
+  <si>
+    <t>riest</t>
+  </si>
+  <si>
+    <t>est'omek</t>
+  </si>
+  <si>
+    <t>emb'elekes</t>
+  </si>
+  <si>
+    <t>chikbon</t>
+  </si>
+  <si>
+    <t>chien</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>tempol</t>
+  </si>
+  <si>
+    <t>nipol</t>
+  </si>
+  <si>
+    <t>jend palm</t>
+  </si>
+  <si>
+    <t>nokol</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>fut tou</t>
+  </si>
+  <si>
+    <t>ailash</t>
+  </si>
+  <si>
+    <t>oper lep</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>aibrau</t>
   </si>
 </sst>
 </file>
@@ -606,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABA068-687E-492D-87CF-58FAABF19440}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
